--- a/Extensive/Home.xlsx
+++ b/Extensive/Home.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="100" windowWidth="25600" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="11540" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="73">
   <si>
     <t>Command</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>close house doors</t>
-  </si>
-  <si>
-    <t>unlick home doors</t>
   </si>
   <si>
     <t>open house doors</t>
@@ -727,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -990,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1001,10 +998,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1012,10 +1009,10 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1023,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1034,50 +1031,65 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1085,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1096,10 +1108,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1107,10 +1119,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1118,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1129,10 +1141,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1140,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1151,10 +1163,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1162,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1173,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1184,10 +1196,10 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1195,10 +1207,10 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1206,10 +1218,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1217,10 +1229,10 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1228,10 +1240,10 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1239,10 +1251,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1250,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1261,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1272,10 +1284,10 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1283,10 +1295,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1294,10 +1306,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1305,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1316,10 +1328,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1327,10 +1339,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1338,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1349,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1360,10 +1372,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1371,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1382,10 +1394,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1393,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
